--- a/loginData.xlsx
+++ b/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\Human_Resource_Management_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD8E840-DE88-4B4E-AC57-F88F1B984FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCEC7B4-F986-4EC5-A1A6-47AE0ADE99A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C00516C5-6CE0-4EA2-9F7B-936FD1B2AAB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -48,9 +48,6 @@
     <t>aditya</t>
   </si>
   <si>
-    <t>shrishail</t>
-  </si>
-  <si>
     <t>dhoni1122</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>adi0099</t>
-  </si>
-  <si>
-    <t>shri4433</t>
   </si>
 </sst>
 </file>
@@ -110,7 +104,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +423,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +432,7 @@
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -459,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -467,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -475,15 +469,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
